--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D501B1-9D13-485D-BFAE-3A8B67AC37FF}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{493AE6D5-D3FD-48F9-8404-A51BD8A92874}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>clés</t>
   </si>
@@ -48,6 +48,189 @@
   </si>
   <si>
     <t>Puis-je vous aider?</t>
+  </si>
+  <si>
+    <t>Who are you ?</t>
+  </si>
+  <si>
+    <t>I am the administrator of this station</t>
+  </si>
+  <si>
+    <t>Nice to meet you</t>
+  </si>
+  <si>
+    <t>You need an access card</t>
+  </si>
+  <si>
+    <t>How can I access the restricted area ?</t>
+  </si>
+  <si>
+    <t>Where can I get an access card ?</t>
+  </si>
+  <si>
+    <t>Thank you.</t>
+  </si>
+  <si>
+    <t>Thank you ! Here is the access card</t>
+  </si>
+  <si>
+    <t>[Give %s]</t>
+  </si>
+  <si>
+    <t>...in your dreams!</t>
+  </si>
+  <si>
+    <t>I'll look it up.</t>
+  </si>
+  <si>
+    <t>Where is my sandwitch ?</t>
+  </si>
+  <si>
+    <t>Sure, but..</t>
+  </si>
+  <si>
+    <t>I don't even know who you are</t>
+  </si>
+  <si>
+    <t>Just give me one</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Come back when you have a name</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>Who is \"someone\" ?</t>
+  </si>
+  <si>
+    <t>I need to see someone</t>
+  </si>
+  <si>
+    <t>Why do you need one ?</t>
+  </si>
+  <si>
+    <t>Oh ok I see. But I am very hungry and very busy. If you can bring me a ham sandwich I could help you</t>
+  </si>
+  <si>
+    <t>[Show message on phone]</t>
+  </si>
+  <si>
+    <t>Congratulation, you won the game !!</t>
+  </si>
+  <si>
+    <t>Wow, thank you !</t>
+  </si>
+  <si>
+    <t>You can now roam freely in the station</t>
+  </si>
+  <si>
+    <t>Let's talk.</t>
+  </si>
+  <si>
+    <t>Nice. Bye.</t>
+  </si>
+  <si>
+    <t>Ok, bye</t>
+  </si>
+  <si>
+    <t>Hello.</t>
+  </si>
+  <si>
+    <t>Hello, nice to meet you.</t>
+  </si>
+  <si>
+    <t>Qui êtes vous ?</t>
+  </si>
+  <si>
+    <t>Je suis l'administratrice de cette station</t>
+  </si>
+  <si>
+    <t>Enchanté de vous rencontrer</t>
+  </si>
+  <si>
+    <t>Vous avez besoin d'une carte d'accès</t>
+  </si>
+  <si>
+    <t>Comment est-ce que je peux accéder à la Zone à Accès Restreint ?</t>
+  </si>
+  <si>
+    <t>Où est-ce que je peux trouver une carte d'accès</t>
+  </si>
+  <si>
+    <t>Merci.</t>
+  </si>
+  <si>
+    <t>Merci ! Voici la carte d'accès</t>
+  </si>
+  <si>
+    <t>[Donne %s]</t>
+  </si>
+  <si>
+    <t>… et puis quoi encore ?</t>
+  </si>
+  <si>
+    <t>Où est mon sandwich au jambon ?</t>
+  </si>
+  <si>
+    <t>Je vais voir</t>
+  </si>
+  <si>
+    <t>Certes, mais…</t>
+  </si>
+  <si>
+    <t>Je ne sais même pas qui vous êtes</t>
+  </si>
+  <si>
+    <t>Donnez m'en une et on n'en parle plus</t>
+  </si>
+  <si>
+    <t>Revenez quand vous aurez un nom</t>
+  </si>
+  <si>
+    <t>Je ne sais pas</t>
+  </si>
+  <si>
+    <t>Qui est "quelqu'un" ?</t>
+  </si>
+  <si>
+    <t>J'ai besoin de voir quelqu'un</t>
+  </si>
+  <si>
+    <t>Pourquoi en avez-vous besoin ?</t>
+  </si>
+  <si>
+    <t>Ah ok je vois. Mais j'ai très faim et je suis très occupée. Si vous pouvez m'apporter un sandwich au jambon, je pourrais vous aider</t>
+  </si>
+  <si>
+    <t>[Montrer le message sur le téléphone]</t>
+  </si>
+  <si>
+    <t>Félicitations, vous avez gagné !</t>
+  </si>
+  <si>
+    <t>Super, merci !</t>
+  </si>
+  <si>
+    <t>Vous pouvez maintenant vous balader librement dans la station</t>
+  </si>
+  <si>
+    <t>Autre chose…</t>
+  </si>
+  <si>
+    <t>Bien. Au revoir.</t>
+  </si>
+  <si>
+    <t>Ok, au revoir</t>
+  </si>
+  <si>
+    <t>Salut</t>
+  </si>
+  <si>
+    <t>Bonjour, enchanté de vous rencontrer</t>
   </si>
 </sst>
 </file>
@@ -399,16 +582,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,6 +610,254 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{493AE6D5-D3FD-48F9-8404-A51BD8A92874}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22863F56-4445-4819-8B17-13B0005F7E7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>I don't know</t>
   </si>
   <si>
-    <t>Who is \"someone\" ?</t>
-  </si>
-  <si>
     <t>I need to see someone</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Bonjour, enchanté de vous rencontrer</t>
+  </si>
+  <si>
+    <t>Who is "someone" ?</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +743,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,111 +751,111 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22863F56-4445-4819-8B17-13B0005F7E7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C461DC-2C99-403A-96A5-FE022C779DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>clés</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Who is "someone" ?</t>
+  </si>
+  <si>
+    <t>About the access card...</t>
+  </si>
+  <si>
+    <t>A propos de la carte d'accès…</t>
   </si>
 </sst>
 </file>
@@ -582,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +864,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C461DC-2C99-403A-96A5-FE022C779DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301318FB-13A5-4CDC-9C26-D2EC0BC0B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>clés</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>A propos de la carte d'accès…</t>
+  </si>
+  <si>
+    <t>Hi, what's on the menu?</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +875,11 @@
         <v>66</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301318FB-13A5-4CDC-9C26-D2EC0BC0B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FE3D0-6B2A-424D-AA17-1B4FB856DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>clés</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Why do you need one ?</t>
   </si>
   <si>
-    <t>Oh ok I see. But I am very hungry and very busy. If you can bring me a ham sandwich I could help you</t>
-  </si>
-  <si>
     <t>[Show message on phone]</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Pourquoi en avez-vous besoin ?</t>
   </si>
   <si>
-    <t>Ah ok je vois. Mais j'ai très faim et je suis très occupée. Si vous pouvez m'apporter un sandwich au jambon, je pourrais vous aider</t>
-  </si>
-  <si>
     <t>[Montrer le message sur le téléphone]</t>
   </si>
   <si>
@@ -239,7 +233,100 @@
     <t>A propos de la carte d'accès…</t>
   </si>
   <si>
-    <t>Hi, what's on the menu?</t>
+    <t>Salut, qu'est-ce qu'il y a au menu ?</t>
+  </si>
+  <si>
+    <t>Hey, what's on the menu ?</t>
+  </si>
+  <si>
+    <t>Il y a moyen de négocier ?</t>
+  </si>
+  <si>
+    <t>Je suis affamé et je n'ai plus de crédits</t>
+  </si>
+  <si>
+    <t>L'Administratrice réclame un sandwich</t>
+  </si>
+  <si>
+    <t>On peut faire du troc ?</t>
+  </si>
+  <si>
+    <t>L'Administratrice ne m'a pas encore payé mon salaire elle peut aller se faire voir</t>
+  </si>
+  <si>
+    <t>Trouvez du travail</t>
+  </si>
+  <si>
+    <t>Quelqu'un m'a piqué ma bague si vous la ramenez je peux vous donner un sandwich au jambon</t>
+  </si>
+  <si>
+    <t>C'est pas très sympa</t>
+  </si>
+  <si>
+    <t>Trop fatiguant</t>
+  </si>
+  <si>
+    <t>Bon ok je retourne chercher un sandwich au jambon</t>
+  </si>
+  <si>
+    <t>Vous avez retrouvé ma bague ?</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>si AP</t>
+  </si>
+  <si>
+    <t>Okay, I'll go back and get a ham sandwich.</t>
+  </si>
+  <si>
+    <t>Is there a way to negotiate?</t>
+  </si>
+  <si>
+    <t>The Administrator asks for a sandwich</t>
+  </si>
+  <si>
+    <t>The Administrator hasn't paid me my salary yet, she can go to hell</t>
+  </si>
+  <si>
+    <t>It's not very nice</t>
+  </si>
+  <si>
+    <t>I'm starving and I'm out of credits</t>
+  </si>
+  <si>
+    <t>Find a job</t>
+  </si>
+  <si>
+    <t>Too exhausting</t>
+  </si>
+  <si>
+    <t>I have 1 credit oranges if you're poor</t>
+  </si>
+  <si>
+    <t>J'ai des oranges à 1 crédit si vous êtes pauvre</t>
+  </si>
+  <si>
+    <t>Can we barter?</t>
+  </si>
+  <si>
+    <t>Someone stole my ring if you bring it back I can give you a ham sandwich</t>
+  </si>
+  <si>
+    <t>Did you find my ring?</t>
+  </si>
+  <si>
+    <t>Oh ok I see. But I am very hungry and very busy. If you can bring me a sandwich or a burger with ham I could help you</t>
+  </si>
+  <si>
+    <t>Ah ok je vois. Mais j'ai très faim et je suis très occupée. Si vous pouvez m'apporter un sandwich ou un burger avec du jambon, je pourrais vous aider</t>
+  </si>
+  <si>
+    <t>Ce n'est pas du jambon et je ne mange pas de bœuf</t>
+  </si>
+  <si>
+    <t>It's not ham and I don't eat beef</t>
   </si>
 </sst>
 </file>
@@ -591,16 +678,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +711,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +735,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +743,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +791,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +839,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,15 +847,15 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,100 +871,213 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
       <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735FE3D0-6B2A-424D-AA17-1B4FB856DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296071FD-51EA-48B2-99FE-5D2EFF5265A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>clés</t>
   </si>
@@ -327,6 +327,30 @@
   </si>
   <si>
     <t>It's not ham and I don't eat beef</t>
+  </si>
+  <si>
+    <t>Nevermind</t>
+  </si>
+  <si>
+    <t>Laissez tomber</t>
+  </si>
+  <si>
+    <t>Great ! Here's your ham sandwich. Where did you find my ring?</t>
+  </si>
+  <si>
+    <t>Super ! Voici votre sandwich au jambon. Où avez-vous trouvé ma bague ?</t>
+  </si>
+  <si>
+    <t>Je suis sûr que c'est cette garce d'Administratrice</t>
+  </si>
+  <si>
+    <t>Si vous le dite</t>
+  </si>
+  <si>
+    <t>Dans un classeur de l'administration</t>
+  </si>
+  <si>
+    <t>In an administration file</t>
   </si>
 </sst>
 </file>
@@ -678,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1104,40 @@
         <v>79</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296071FD-51EA-48B2-99FE-5D2EFF5265A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBCF90-871D-4BB0-9EC8-4AAC32F9DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>clés</t>
   </si>
@@ -341,16 +341,22 @@
     <t>Super ! Voici votre sandwich au jambon. Où avez-vous trouvé ma bague ?</t>
   </si>
   <si>
-    <t>Je suis sûr que c'est cette garce d'Administratrice</t>
-  </si>
-  <si>
     <t>Si vous le dite</t>
   </si>
   <si>
-    <t>Dans un classeur de l'administration</t>
-  </si>
-  <si>
-    <t>In an administration file</t>
+    <t>Derrière le bureau de l'Administratrice</t>
+  </si>
+  <si>
+    <t>Behind the Administrator's desk</t>
+  </si>
+  <si>
+    <t>J'étais sûr que c'etait cette garce d'Administratrice</t>
+  </si>
+  <si>
+    <t>If you say so</t>
+  </si>
+  <si>
+    <t>I was sure it was that bitchy Administrator</t>
   </si>
 </sst>
 </file>
@@ -704,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
@@ -1122,20 +1128,26 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBCF90-871D-4BB0-9EC8-4AAC32F9DBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BC920-6D6F-42DD-B2B0-D74DEA656530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>clés</t>
   </si>
@@ -56,9 +56,6 @@
     <t>I am the administrator of this station</t>
   </si>
   <si>
-    <t>Nice to meet you</t>
-  </si>
-  <si>
     <t>You need an access card</t>
   </si>
   <si>
@@ -68,21 +65,12 @@
     <t>Where can I get an access card ?</t>
   </si>
   <si>
-    <t>Thank you.</t>
-  </si>
-  <si>
     <t>Thank you ! Here is the access card</t>
   </si>
   <si>
-    <t>[Give %s]</t>
-  </si>
-  <si>
     <t>...in your dreams!</t>
   </si>
   <si>
-    <t>I'll look it up.</t>
-  </si>
-  <si>
     <t>Where is my sandwitch ?</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>Just give me one</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>Come back when you have a name</t>
   </si>
   <si>
@@ -122,30 +107,12 @@
     <t>You can now roam freely in the station</t>
   </si>
   <si>
-    <t>Let's talk.</t>
-  </si>
-  <si>
-    <t>Nice. Bye.</t>
-  </si>
-  <si>
-    <t>Ok, bye</t>
-  </si>
-  <si>
-    <t>Hello.</t>
-  </si>
-  <si>
-    <t>Hello, nice to meet you.</t>
-  </si>
-  <si>
     <t>Qui êtes vous ?</t>
   </si>
   <si>
     <t>Je suis l'administratrice de cette station</t>
   </si>
   <si>
-    <t>Enchanté de vous rencontrer</t>
-  </si>
-  <si>
     <t>Vous avez besoin d'une carte d'accès</t>
   </si>
   <si>
@@ -155,15 +122,9 @@
     <t>Où est-ce que je peux trouver une carte d'accès</t>
   </si>
   <si>
-    <t>Merci.</t>
-  </si>
-  <si>
     <t>Merci ! Voici la carte d'accès</t>
   </si>
   <si>
-    <t>[Donne %s]</t>
-  </si>
-  <si>
     <t>… et puis quoi encore ?</t>
   </si>
   <si>
@@ -209,18 +170,6 @@
     <t>Vous pouvez maintenant vous balader librement dans la station</t>
   </si>
   <si>
-    <t>Autre chose…</t>
-  </si>
-  <si>
-    <t>Bien. Au revoir.</t>
-  </si>
-  <si>
-    <t>Ok, au revoir</t>
-  </si>
-  <si>
-    <t>Salut</t>
-  </si>
-  <si>
     <t>Bonjour, enchanté de vous rencontrer</t>
   </si>
   <si>
@@ -272,12 +221,6 @@
     <t>Vous avez retrouvé ma bague ?</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>si AP</t>
-  </si>
-  <si>
     <t>Okay, I'll go back and get a ham sandwich.</t>
   </si>
   <si>
@@ -329,12 +272,6 @@
     <t>It's not ham and I don't eat beef</t>
   </si>
   <si>
-    <t>Nevermind</t>
-  </si>
-  <si>
-    <t>Laissez tomber</t>
-  </si>
-  <si>
     <t>Great ! Here's your ham sandwich. Where did you find my ring?</t>
   </si>
   <si>
@@ -357,6 +294,42 @@
   </si>
   <si>
     <t>I was sure it was that bitchy Administrator</t>
+  </si>
+  <si>
+    <t>Hello, nice to meet you</t>
+  </si>
+  <si>
+    <t>I'll look it up</t>
+  </si>
+  <si>
+    <t>Hey, DON'T touch that ring !</t>
+  </si>
+  <si>
+    <t>Ok ! Calm down...</t>
+  </si>
+  <si>
+    <t>Ne touchez pas à cette bague !</t>
+  </si>
+  <si>
+    <t>Ok ! Calmez-vous…</t>
+  </si>
+  <si>
+    <t>Cette bague ne serait elle pas celle du serveur ?</t>
+  </si>
+  <si>
+    <t>Isn't this ring the waiter's?</t>
+  </si>
+  <si>
+    <t>Uh...well... maybe he put it there and forgot about it?</t>
+  </si>
+  <si>
+    <t>Heu...bon.. il l'a peut-être posée là et oublié ?</t>
+  </si>
+  <si>
+    <t>J'ai des doutes. Je vais lui montrer</t>
+  </si>
+  <si>
+    <t>Maybe. I'll show him.</t>
   </si>
 </sst>
 </file>
@@ -708,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -765,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -781,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,325 +762,319 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
       </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,39 +1082,7 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BC920-6D6F-42DD-B2B0-D74DEA656530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060CB307-EC31-416F-AB53-4AAE2EE40DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -224,9 +224,6 @@
     <t>Okay, I'll go back and get a ham sandwich.</t>
   </si>
   <si>
-    <t>Is there a way to negotiate?</t>
-  </si>
-  <si>
     <t>The Administrator asks for a sandwich</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>Too exhausting</t>
   </si>
   <si>
-    <t>I have 1 credit oranges if you're poor</t>
-  </si>
-  <si>
     <t>J'ai des oranges à 1 crédit si vous êtes pauvre</t>
   </si>
   <si>
@@ -278,18 +272,12 @@
     <t>Super ! Voici votre sandwich au jambon. Où avez-vous trouvé ma bague ?</t>
   </si>
   <si>
-    <t>Si vous le dite</t>
-  </si>
-  <si>
     <t>Derrière le bureau de l'Administratrice</t>
   </si>
   <si>
     <t>Behind the Administrator's desk</t>
   </si>
   <si>
-    <t>J'étais sûr que c'etait cette garce d'Administratrice</t>
-  </si>
-  <si>
     <t>If you say so</t>
   </si>
   <si>
@@ -330,6 +318,18 @@
   </si>
   <si>
     <t>Maybe. I'll show him.</t>
+  </si>
+  <si>
+    <t>Si vous le dites</t>
+  </si>
+  <si>
+    <t>I've got oranges for 1 credit if you're poor</t>
+  </si>
+  <si>
+    <t>Is there any way to negotiate?</t>
+  </si>
+  <si>
+    <t>J'étais sûr que c'était cette garce d'Administratrice</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>50</v>
@@ -919,15 +919,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>53</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>55</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
@@ -975,10 +975,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
         <v>60</v>
@@ -1015,74 +1015,74 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/quest_main_dialogs.xlsx
+++ b/assets/i18n/quest_main_dialogs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060CB307-EC31-416F-AB53-4AAE2EE40DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{060CB307-EC31-416F-AB53-4AAE2EE40DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FD3165F-8AF4-4CCE-8976-9134C696105F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>clés</t>
   </si>
@@ -330,6 +330,24 @@
   </si>
   <si>
     <t>J'étais sûr que c'était cette garce d'Administratrice</t>
+  </si>
+  <si>
+    <t>Bien je vais partir en quête de cornichons à mettre dans ce sandwich</t>
+  </si>
+  <si>
+    <t>Ce sandwich est appétissant mais je préfère avec des cornichons</t>
+  </si>
+  <si>
+    <t>Ce n'est pas un sandwich mais un croque monsieur</t>
+  </si>
+  <si>
+    <t>It's not a sandwich but a croque monsieur</t>
+  </si>
+  <si>
+    <t>This sandwich is appetizing but I prefer it with pickles</t>
+  </si>
+  <si>
+    <t>Well, I'm off in search of pickles to put in that sandwich</t>
   </si>
 </sst>
 </file>
@@ -681,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1103,30 @@
         <v>92</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
